--- a/COD_EDP/calibration/Calibration.xlsx
+++ b/COD_EDP/calibration/Calibration.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAB-PAV-UFRB\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EF1E7C-C812-4308-A879-C5C46D458E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BE261C-997F-4CD9-BDB6-D1A7883A5CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DIN1" sheetId="4" r:id="rId1"/>
-    <sheet name="DIN2" sheetId="1" r:id="rId2"/>
-    <sheet name="DIN2 (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="DIN2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
   <si>
     <t>Bar</t>
   </si>
@@ -56,9 +55,6 @@
   </si>
   <si>
     <t>mBar</t>
-  </si>
-  <si>
-    <t>Display (Bar)</t>
   </si>
   <si>
     <t>MPa</t>
@@ -122,11 +118,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -879,7 +872,7 @@
             <c:numRef>
               <c:f>'DIN1'!$G$5:$G$18</c:f>
               <c:numCache>
-                <c:formatCode>0,000</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>4.6099999999999995E-2</c:v>
@@ -1137,7 +1130,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0,000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1365,28 +1358,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>400</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>600</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>800</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1200</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1398,28 +1391,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>560</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1120</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1665</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>2220</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>2770</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>3320</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>3870</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1427,7 +1420,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D239-46E6-BD28-8F048D675566}"/>
+              <c16:uniqueId val="{00000001-5BA9-43B0-A21E-33C5DBC405B0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1863,1057 +1856,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1362</c:v>
+                  <c:v>1265</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1552</c:v>
+                  <c:v>1366</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1741</c:v>
+                  <c:v>1553</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1740</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1926</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2113</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>2300</c:v>
+                  <c:v>2118</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2488</c:v>
+                  <c:v>2305</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2533</c:v>
+                  <c:v>2490</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'DIN2'!$F$4:$F$11</c:f>
+              <c:f>'DIN2'!$G$4:$G$11</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0,000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.04</c:v>
+                  <c:v>2.0500000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>4.0799999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.08</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1</c:v>
+                  <c:v>8.0299999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12</c:v>
+                  <c:v>0.10010000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13999999999999999</c:v>
+                  <c:v>0.1197</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14499999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BF12-4975-8774-8CF0D0B8F354}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1420401343"/>
-        <c:axId val="1382338159"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1420401343"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR"/>
-                  <a:t>GetPoint</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1382338159"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1382338159"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR"/>
-                  <a:t>MPa</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1420401343"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Input</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.17971943162277129"/>
-                  <c:y val="-3.4046114099800483E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="pt-BR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'DIN2 (2)'!$B$5:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'DIN2 (2)'!$C$5:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>560</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1120</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1665</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2220</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2770</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3320</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3870</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5BA9-43B0-A21E-33C5DBC405B0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1420401343"/>
-        <c:axId val="1382338159"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1420401343"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR"/>
-                  <a:t>mBar</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1382338159"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1382338159"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pt-BR"/>
-                  <a:t>SetPoint</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1420401343"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Output</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.20223171163165732"/>
-                  <c:y val="-1.7166666666666667E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="pt-BR"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'DIN2 (2)'!$D$5:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1366</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1553</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1740</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1926</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2118</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2305</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2490</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2536</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'DIN2 (2)'!$G$5:$G$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0799999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0299999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.10010000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.1197</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.13930000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1439</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3129,7 +2126,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0,000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3382,86 +2379,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5011,1038 +3928,6 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6640,85 +4525,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{080D4A0A-DFE2-4653-9CBD-481568C0E952}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7985D172-1E85-4577-B6D2-518AEC7B7410}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7062,471 +4868,477 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740D1DCB-FA20-4A7F-B13B-D68D42F58CA4}">
-  <dimension ref="A2:M18"/>
+  <dimension ref="A2:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20:R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.5703125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.5703125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="7">
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="6">
         <v>1</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <f>I3*1000</f>
         <v>1000</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f>G4*10000</f>
         <v>0</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>0</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <f>E4-$E$4</f>
         <v>0</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <f>F4/10</f>
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="3" t="s">
+      <c r="I4" s="6"/>
+      <c r="J4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <f>I3/10</f>
         <v>0.1</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>8</v>
+      <c r="M4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <f t="shared" ref="B5:B18" si="0">G5*10000</f>
         <v>460.99999999999994</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>300</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>168</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>0.49399999999999999</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <f>E5-$E$4</f>
         <v>0.46099999999999997</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <f>F5/10</f>
         <v>4.6099999999999995E-2</v>
       </c>
-      <c r="K5" s="2"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>781.99999999999989</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>500</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>332</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>0.81499999999999995</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <f t="shared" ref="F6:F18" si="1">E6-$E$4</f>
         <v>0.78199999999999992</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <f t="shared" ref="G6:G18" si="2">F6/10</f>
         <v>7.8199999999999992E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>1113</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>700</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>503</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>1.1459999999999999</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <f t="shared" si="1"/>
         <v>1.113</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <f t="shared" si="2"/>
         <v>0.1113</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>1602</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>1000</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>751</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>1.635</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <f t="shared" si="1"/>
         <v>1.6020000000000001</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <f t="shared" si="2"/>
         <v>0.16020000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>2087.0000000000005</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>1300</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>994</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>2.12</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <f t="shared" si="1"/>
         <v>2.0870000000000002</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <f t="shared" si="2"/>
         <v>0.20870000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>2567.0000000000005</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>1600</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>1235</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>2.6</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <f t="shared" si="1"/>
         <v>2.5670000000000002</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <f t="shared" si="2"/>
         <v>0.25670000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>3056.9999999999995</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>1900</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>1484</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>3.09</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <f t="shared" si="1"/>
         <v>3.0569999999999999</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <f t="shared" si="2"/>
         <v>0.30569999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <f t="shared" si="0"/>
         <v>3397</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>2100</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>1647</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>3.43</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <f t="shared" si="1"/>
         <v>3.3970000000000002</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <f t="shared" si="2"/>
         <v>0.3397</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <f t="shared" si="0"/>
         <v>3877.0000000000005</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>2400</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>1892</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>3.91</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <f t="shared" si="1"/>
         <v>3.8770000000000002</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <f t="shared" si="2"/>
         <v>0.38770000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <f t="shared" si="0"/>
         <v>4356.9999999999991</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>2700</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>2133</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>4.3899999999999997</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <f t="shared" si="1"/>
         <v>4.3569999999999993</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <f t="shared" si="2"/>
         <v>0.43569999999999992</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <f t="shared" si="0"/>
         <v>4867</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>3000</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>2378</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <f t="shared" si="1"/>
         <v>4.867</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <f t="shared" si="2"/>
         <v>0.48670000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <f t="shared" si="0"/>
         <v>5326.9999999999991</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>3300</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>2614</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>5.36</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <f t="shared" si="1"/>
         <v>5.327</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <f t="shared" si="2"/>
         <v>0.53269999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>5816.9999999999991</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>3600</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>2859</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>5.85</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <f t="shared" si="1"/>
         <v>5.8169999999999993</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <f t="shared" si="2"/>
         <v>0.58169999999999988</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>6476.9999999999991</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>4000</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>3194</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>6.51</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <f t="shared" si="1"/>
         <v>6.4769999999999994</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <f t="shared" si="2"/>
         <v>0.64769999999999994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I29" s="2">
+        <f>0.005*10000</f>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -7540,583 +5352,301 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:L13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245BB809-B47B-4B5F-AEE3-E06C4A7CDBE6}">
+  <dimension ref="A2:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
-        <f>H3*1000</f>
-        <v>1000</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>200</v>
-      </c>
-      <c r="C4" s="6">
-        <v>560</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1362</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="F4" s="5">
-        <f>E4/10</f>
-        <v>0.02</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1">
-        <f>H3/10</f>
-        <v>0.1</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
-        <v>400</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1120</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1552</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="F5" s="5">
-        <f t="shared" ref="F5:F13" si="0">E5/10</f>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>600</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1665</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1741</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" si="0"/>
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>800</v>
-      </c>
-      <c r="C7" s="6">
-        <v>2220</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1926</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" si="0"/>
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C8" s="6">
-        <v>2770</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2113</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1200</v>
-      </c>
-      <c r="C9" s="6">
-        <v>3320</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2300</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="0"/>
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1400</v>
-      </c>
-      <c r="C10" s="6">
-        <v>3870</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2488</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="0"/>
-        <v>0.13999999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1600</v>
-      </c>
-      <c r="C11" s="6">
-        <v>4000</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2533</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1.45</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="0"/>
-        <v>0.14499999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C12" s="6"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C13" s="6"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H3:H4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245BB809-B47B-4B5F-AEE3-E06C4A7CDBE6}">
-  <dimension ref="A2:M14"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.5703125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.5703125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="7">
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="6">
         <v>1</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <f>I3*1000</f>
         <v>1000</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="C4" s="5">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1265</v>
+      </c>
+      <c r="E4" s="4">
         <v>2.7E-2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <f>E4-$E$4</f>
         <v>0</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <f>F4/10</f>
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="3" t="s">
+      <c r="I4" s="6"/>
+      <c r="J4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <f>I3/10</f>
         <v>0.1</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>8</v>
+      <c r="M4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>200</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>560</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>1366</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>0.23200000000000001</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <f>E5-$E$4</f>
         <v>0.20500000000000002</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <f>F5/10</f>
         <v>2.0500000000000001E-2</v>
       </c>
-      <c r="K5" s="2"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>400</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>1120</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>1553</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>0.435</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <f t="shared" ref="F6:F12" si="0">E6-$E$4</f>
         <v>0.40799999999999997</v>
       </c>
-      <c r="G6" s="5">
-        <f t="shared" ref="G6:G13" si="1">F6/10</f>
+      <c r="G6" s="4">
+        <f t="shared" ref="G6:G12" si="1">F6/10</f>
         <v>4.0799999999999996E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>600</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>1665</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>1740</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>0.627</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <f t="shared" si="1"/>
         <v>0.06</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>800</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>2220</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>1926</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>0.83</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <f t="shared" si="0"/>
         <v>0.80299999999999994</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <f t="shared" si="1"/>
         <v>8.0299999999999996E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>1000</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>2770</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>2118</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>1.028</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <f t="shared" si="0"/>
         <v>1.0010000000000001</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <f t="shared" si="1"/>
         <v>0.10010000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>1200</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>3320</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>2305</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>1.224</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <f t="shared" si="0"/>
         <v>1.1970000000000001</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <f t="shared" si="1"/>
         <v>0.1197</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>1400</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>3870</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>2490</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>1.42</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <f t="shared" si="0"/>
         <v>1.393</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <f t="shared" si="1"/>
         <v>0.13930000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1600</v>
-      </c>
-      <c r="C12" s="6">
-        <v>4000</v>
-      </c>
-      <c r="D12" s="3">
-        <v>2536</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1.466</v>
-      </c>
-      <c r="F12" s="4">
-        <f t="shared" si="0"/>
-        <v>1.4390000000000001</v>
-      </c>
-      <c r="G12" s="5">
-        <f t="shared" si="1"/>
-        <v>0.1439</v>
-      </c>
+      <c r="C12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="6"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C14" s="6"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
